--- a/GestorReceitas/Janeiro/Lanche.xlsx
+++ b/GestorReceitas/Janeiro/Lanche.xlsx
@@ -623,8 +623,8 @@
   </sheetPr>
   <dimension ref="A1:E146"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A131" colorId="64" zoomScale="141" zoomScaleNormal="141" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D158" activeCellId="0" sqref="D158"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A107" colorId="64" zoomScale="141" zoomScaleNormal="141" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D131" activeCellId="0" sqref="D131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.71484375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -778,9 +778,6 @@
       <c r="C11" s="1" t="n">
         <v>295955694</v>
       </c>
-      <c r="D11" s="1" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
